--- a/SAMPLES/Nemijenjani/zz_lista_volontera_24_25.xlsx
+++ b/SAMPLES/Nemijenjani/zz_lista_volontera_24_25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Izvjesce\ZZ_Report_Analysis\SAMPLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lobel\Documents\Lobel\Zlatni Zmaj\Evidencija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AEFE4-0F2C-43C1-AAB9-9E2A98EDDD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939D811A-20F2-4B53-9963-B191B8F92DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E4510751-5150-4AC6-8207-09F7448F3FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="raspored" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="275">
   <si>
     <t>LOKACIJE</t>
   </si>
@@ -213,6 +213,21 @@
     <t>x na sivoj pozadini označava da taj tjedan nije bilo instrukcija (zbog praznika ili su radi nečeg drugog odgođene)</t>
   </si>
   <si>
+    <t>DODATNE UPUTE ZA FUNKCIONIRANJE PYTHON PROGRAMA ZA IZVJEŠTAJE</t>
+  </si>
+  <si>
+    <t>Prvi sheet u Excelu mora biti "raspored". Svaki naredni sheet mora nositi ime duljine jednog slova, koje je početno slovo imena lokacije za koju taj sheet služi.</t>
+  </si>
+  <si>
+    <t>Jedini mergani cellovi u svakom sheetu moraju biti imena škola. I sva imena škola trebaju biti u merganim cellovima.</t>
+  </si>
+  <si>
+    <t>Sva imena škola moraju biti jednaka u svakom sheetu u kojem se pojavljuju.</t>
+  </si>
+  <si>
+    <t>Razredi se moraju pisati u početnoj koloni merganog cella i pišu se samo za prvu osobu usvakom razredu. Dvije kolone na desno upisuju se imena volontera.</t>
+  </si>
+  <si>
     <t xml:space="preserve">broj volontera: </t>
   </si>
   <si>
@@ -228,6 +243,9 @@
     <t>broj termina:</t>
   </si>
   <si>
+    <t>Sajam u MZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">datum: </t>
   </si>
   <si>
@@ -291,9 +309,24 @@
     <t>5.12.2024.</t>
   </si>
   <si>
+    <t>10.12.2024.</t>
+  </si>
+  <si>
+    <t>12.12.2024.</t>
+  </si>
+  <si>
+    <t>17.12.2024.</t>
+  </si>
+  <si>
+    <t>19.12.2024.</t>
+  </si>
+  <si>
     <t>broj volontera:</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>broj djece:</t>
   </si>
   <si>
@@ -396,7 +429,7 @@
     <t>Karla Peric</t>
   </si>
   <si>
-    <t>Anja Vukobratović</t>
+    <t>Anja Vukobratović*</t>
   </si>
   <si>
     <t>Mauro Kritovac</t>
@@ -675,9 +708,6 @@
     <t>Sven Ridzak</t>
   </si>
   <si>
-    <t>Rita Bakić</t>
-  </si>
-  <si>
     <t>Nika Milinković</t>
   </si>
   <si>
@@ -853,6 +883,12 @@
   </si>
   <si>
     <t>27.11.2024.</t>
+  </si>
+  <si>
+    <t>4.12.2024.</t>
+  </si>
+  <si>
+    <t>11.12.2024.</t>
   </si>
   <si>
     <t>Franka Islamović</t>
@@ -932,7 +968,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1173,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1205,6 +1247,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1217,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,8 +1308,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Izlaz" xfId="1" builtinId="21"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,9 +1331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1325,7 +1371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1431,7 +1477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1573,7 +1619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1581,13 +1627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A949D4D-8DCF-44A5-B736-0090FCC111AD}">
-  <dimension ref="B6:I34"/>
+  <dimension ref="B6:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
@@ -1597,14 +1643,14 @@
     <col min="13" max="13" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30.75" customHeight="1">
+      <c r="C6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" ht="24" customHeight="1">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="33" customHeight="1">
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1626,24 +1672,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="C10">
         <v>140</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="13" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:9" ht="33.75" customHeight="1">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="25.5" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1717,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="25.5" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1685,13 +1731,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="3:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" ht="15" customHeight="1"/>
+    <row r="21" spans="3:4" ht="43.5" customHeight="1">
       <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
@@ -1699,44 +1745,69 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4">
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4">
       <c r="C32" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1752,14 +1823,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71401D37-8643-4D80-AD6F-CCF38A0A6DA2}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="9" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -1770,118 +1841,129 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
@@ -1889,9 +1971,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1953,10 +2035,22 @@
       <c r="Z8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2018,1114 +2112,1159 @@
       <c r="Z9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F109" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="E14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="C16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <f>COUNTIF(G16:EZ16, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:29">
       <c r="E17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29">
       <c r="E18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:29">
       <c r="E19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:29">
       <c r="E20" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:29">
       <c r="E21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29">
       <c r="E22" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:29">
       <c r="E23" s="14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29">
       <c r="E24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29">
       <c r="E25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29">
       <c r="E26" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29">
       <c r="E27" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:29">
       <c r="E28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="5:29">
+      <c r="E29" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:29">
       <c r="E30" s="14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:29">
       <c r="E31" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:29">
       <c r="E32" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24">
       <c r="E33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F33">
         <f>COUNTIF(G33:EZ33, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24">
       <c r="E34" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <f>COUNTIF(G34:EZ34, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24">
       <c r="E35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <f>COUNTIF(G35:EZ35, "da")</f>
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24">
       <c r="C37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Q37" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24">
       <c r="E38" s="10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24">
       <c r="E39" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24">
       <c r="E40" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R41" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24">
       <c r="E43" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24">
       <c r="E44" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24">
       <c r="E45" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24">
       <c r="E46" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24">
       <c r="E47" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24">
       <c r="E48" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:28">
       <c r="E49" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="V49" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="5:28">
       <c r="E50" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:28">
       <c r="E51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="5:28">
       <c r="E52" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:28">
       <c r="E53" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:28">
       <c r="E54" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:28">
       <c r="E55" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:28">
       <c r="E56" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="5:28">
       <c r="E57" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:28">
       <c r="E58" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:28">
       <c r="E59" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:28">
       <c r="E60" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="5:28">
       <c r="E61" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="5:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="5:28">
       <c r="E62" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:28">
       <c r="E63" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:28">
       <c r="E64" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23">
       <c r="E65" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23">
       <c r="E66" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:23">
       <c r="E67" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F67">
         <f>COUNTIF(G67:EZ67, "da")</f>
         <v>2</v>
       </c>
       <c r="R67" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23">
       <c r="E68" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F68">
         <f>COUNTIF(G68:EZ68, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:23">
       <c r="E69" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F69">
         <f>COUNTIF(G69:EZ69, "da")</f>
         <v>3</v>
       </c>
       <c r="Q69" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23">
       <c r="C71" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P71" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23">
       <c r="E72" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:23">
       <c r="E73" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:23">
       <c r="E74" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:23">
       <c r="E75" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:23">
       <c r="E76" s="14" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:23">
       <c r="E77" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R77" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C79" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23">
+      <c r="C79" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="81" spans="3:27">
       <c r="C81" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F81">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W81" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C83" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27">
+      <c r="C83" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+    </row>
+    <row r="85" spans="3:27">
       <c r="C85" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F85">
         <f>COUNTIF(G85:EZ85, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:27">
       <c r="C87" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F87">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27">
       <c r="E88" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F88">
         <f>COUNTIF(G88:EZ88, "da")</f>
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27">
       <c r="E89" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F89">
         <f>COUNTIF(G89:EZ89, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:27">
       <c r="C91" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F91">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27">
       <c r="E92" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F92">
         <f>COUNTIF(G92:EZ92, "da")</f>
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V92" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27">
       <c r="E93" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F93">
         <f>COUNTIF(G93:EZ93, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:27">
       <c r="C95" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:27">
       <c r="E96" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F96">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C98" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29">
+      <c r="C98" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+    </row>
+    <row r="100" spans="3:29">
       <c r="C100" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F100">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X100" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29">
       <c r="E101" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F101">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X101" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29">
       <c r="E102" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C104" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C106" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:29">
+      <c r="C104" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="106" spans="3:29">
+      <c r="C106" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+    </row>
+    <row r="108" spans="3:29">
       <c r="C108" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:29">
       <c r="E109" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C111" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:29">
+      <c r="C111" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+    </row>
+    <row r="113" spans="3:19">
       <c r="C113" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F113">
         <f>COUNTIF(G113:EZ113, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C115" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-    </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:19">
+      <c r="C115" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+    </row>
+    <row r="117" spans="3:19">
       <c r="C117" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F117">
         <f>COUNTIF(G117:EZ117, "da")</f>
         <v>1</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3148,13 +3287,13 @@
   <dimension ref="A1:AJ150"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="T74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="S50" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
@@ -3165,117 +3304,123 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="F7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -3284,9 +3429,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3349,9 +3494,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3414,1624 +3559,1629 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F14" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="E14" s="14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="E15" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F118" si="1">COUNTIF(G15:EZ15, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="E16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="E17" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25">
       <c r="E18" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>155</v>
+    <row r="19" spans="3:25">
+      <c r="E19" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F20">
         <f>COUNTIF(G20:EZ20, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
       <c r="E25" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25">
       <c r="E26" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:25">
       <c r="E27" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
       <c r="E28" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
       <c r="E29" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
       <c r="E30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:25">
       <c r="E31" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:25">
       <c r="E32" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:23">
       <c r="E33" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F53" si="2">COUNTIF(G33:EZ33, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
+        <f>COUNTIF(G33:EZ33, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23">
       <c r="E34" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F34">
+        <f>COUNTIF(G34:EZ34, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23">
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(G35:EZ35, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23">
+      <c r="E36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(G36:EZ36, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23">
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF(G37:EZ37, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23">
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIF(G38:EZ38, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIF(G39:EZ39, "da")</f>
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" t="s">
+        <v>69</v>
+      </c>
+      <c r="U39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23">
+      <c r="E40" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(G40:EZ40, "da")</f>
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s">
+        <v>69</v>
+      </c>
+      <c r="W40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23">
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIF(G41:EZ41, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23">
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF(G42:EZ42, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23">
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF(G43:EZ43, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="T43" t="s">
+        <v>69</v>
+      </c>
+      <c r="W43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23">
+      <c r="E44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(G44:EZ44, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23">
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIF(G45:EZ45, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>69</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="5:23">
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIF(G46:EZ46, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>69</v>
+      </c>
+      <c r="R46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23">
+      <c r="E47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(G47:EZ47, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23">
+      <c r="E48" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIF(G48:EZ48, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26">
+      <c r="E49" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIF(G49:EZ49, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26">
+      <c r="E50" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIF(G50:EZ50, "da")</f>
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>69</v>
+      </c>
+      <c r="R50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26">
+      <c r="E51" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIF(G51:EZ51, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26">
+      <c r="E52" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(G52:EZ52, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26">
+      <c r="E53" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIF(G53:EZ53, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26">
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>69</v>
+      </c>
+      <c r="R55" t="s">
+        <v>69</v>
+      </c>
+      <c r="S55" t="s">
+        <v>69</v>
+      </c>
+      <c r="T55" t="s">
+        <v>69</v>
+      </c>
+      <c r="V55" t="s">
+        <v>69</v>
+      </c>
+      <c r="W55" t="s">
+        <v>69</v>
+      </c>
+      <c r="X55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26">
+      <c r="E56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>69</v>
+      </c>
+      <c r="S56" t="s">
+        <v>69</v>
+      </c>
+      <c r="X56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:26">
+      <c r="E57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26">
+      <c r="E58" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>69</v>
+      </c>
+      <c r="V58" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26">
+      <c r="E59" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26">
+      <c r="E60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26">
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>69</v>
+      </c>
+      <c r="R61" t="s">
+        <v>69</v>
+      </c>
+      <c r="S61" t="s">
+        <v>69</v>
+      </c>
+      <c r="T61" t="s">
+        <v>69</v>
+      </c>
+      <c r="U61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26">
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
+        <v>69</v>
+      </c>
+      <c r="S62" t="s">
+        <v>69</v>
+      </c>
+      <c r="T62" t="s">
+        <v>69</v>
+      </c>
+      <c r="U62" t="s">
+        <v>69</v>
+      </c>
+      <c r="W62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26">
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26">
+      <c r="E64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:26">
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:26">
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="N66" t="s">
+        <v>69</v>
+      </c>
+      <c r="S66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="5:26">
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:26">
+      <c r="E68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:26">
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:26">
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:26">
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" t="s">
+        <v>69</v>
+      </c>
+      <c r="T71" t="s">
+        <v>69</v>
+      </c>
+      <c r="U71" t="s">
+        <v>69</v>
+      </c>
+      <c r="W71" t="s">
+        <v>69</v>
+      </c>
+      <c r="X71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="5:26">
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:26">
+      <c r="E73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="5:26">
+      <c r="E74" t="s">
+        <v>203</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:26">
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>69</v>
+      </c>
+      <c r="U75" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="5:26">
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>69</v>
+      </c>
+      <c r="R76" t="s">
+        <v>69</v>
+      </c>
+      <c r="T76" t="s">
+        <v>69</v>
+      </c>
+      <c r="V76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="5:26">
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I77" t="s">
+        <v>69</v>
+      </c>
+      <c r="M77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>69</v>
+      </c>
+      <c r="R77" t="s">
+        <v>69</v>
+      </c>
+      <c r="V77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="5:26">
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78" t="s">
+        <v>69</v>
+      </c>
+      <c r="L78" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>69</v>
+      </c>
+      <c r="S78" t="s">
+        <v>69</v>
+      </c>
+      <c r="X78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="5:26">
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:26">
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+      <c r="K80" t="s">
+        <v>69</v>
+      </c>
+      <c r="T80" t="s">
+        <v>69</v>
+      </c>
+      <c r="V80" t="s">
+        <v>69</v>
+      </c>
+      <c r="W80" t="s">
+        <v>69</v>
+      </c>
+      <c r="X80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26">
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26">
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ref="F82:F87" si="2">COUNTIF(G82:EZ82, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
+        <v>69</v>
+      </c>
+      <c r="S82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:26">
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="S83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26">
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>69</v>
+      </c>
+      <c r="K84" t="s">
+        <v>69</v>
+      </c>
+      <c r="S84" t="s">
+        <v>69</v>
+      </c>
+      <c r="U84" t="s">
+        <v>69</v>
+      </c>
+      <c r="W84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26">
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37">
+    <row r="86" spans="3:26">
+      <c r="E86" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39">
+    <row r="87" spans="3:26">
+      <c r="E87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" t="s">
-        <v>58</v>
-      </c>
-      <c r="R39" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E40" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" t="s">
-        <v>58</v>
-      </c>
-      <c r="P40" t="s">
-        <v>58</v>
-      </c>
-      <c r="W40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O43" t="s">
-        <v>58</v>
-      </c>
-      <c r="T43" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M45" t="s">
-        <v>58</v>
-      </c>
-      <c r="O45" t="s">
-        <v>58</v>
-      </c>
-      <c r="S45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>58</v>
-      </c>
-      <c r="R46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E47" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E48" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E49" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E50" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="P50" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>58</v>
-      </c>
-      <c r="R50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E51" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M51" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E52" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E53" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="I55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K55" t="s">
-        <v>58</v>
-      </c>
-      <c r="M55" t="s">
-        <v>58</v>
-      </c>
-      <c r="N55" t="s">
-        <v>58</v>
-      </c>
-      <c r="P55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>58</v>
-      </c>
-      <c r="R55" t="s">
-        <v>58</v>
-      </c>
-      <c r="S55" t="s">
-        <v>58</v>
-      </c>
-      <c r="T55" t="s">
-        <v>58</v>
-      </c>
-      <c r="V55" t="s">
-        <v>58</v>
-      </c>
-      <c r="W55" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>58</v>
-      </c>
-      <c r="S56" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E58" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="V58" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E59" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61" t="s">
-        <v>58</v>
-      </c>
-      <c r="J61" t="s">
-        <v>58</v>
-      </c>
-      <c r="O61" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>58</v>
-      </c>
-      <c r="R61" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" t="s">
-        <v>58</v>
-      </c>
-      <c r="T61" t="s">
-        <v>58</v>
-      </c>
-      <c r="U61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" t="s">
-        <v>58</v>
-      </c>
-      <c r="M62" t="s">
-        <v>58</v>
-      </c>
-      <c r="O62" t="s">
-        <v>58</v>
-      </c>
-      <c r="R62" t="s">
-        <v>58</v>
-      </c>
-      <c r="S62" t="s">
-        <v>58</v>
-      </c>
-      <c r="T62" t="s">
-        <v>58</v>
-      </c>
-      <c r="U62" t="s">
-        <v>58</v>
-      </c>
-      <c r="W62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L66" t="s">
-        <v>58</v>
-      </c>
-      <c r="N66" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>190</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" t="s">
-        <v>58</v>
-      </c>
-      <c r="K71" t="s">
-        <v>58</v>
-      </c>
-      <c r="T71" t="s">
-        <v>58</v>
-      </c>
-      <c r="U71" t="s">
-        <v>58</v>
-      </c>
-      <c r="W71" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>191</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N75" t="s">
-        <v>58</v>
-      </c>
-      <c r="U75" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>194</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K76" t="s">
-        <v>58</v>
-      </c>
-      <c r="R76" t="s">
-        <v>58</v>
-      </c>
-      <c r="T76" t="s">
-        <v>58</v>
-      </c>
-      <c r="V76" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>58</v>
-      </c>
-      <c r="R77" t="s">
-        <v>58</v>
-      </c>
-      <c r="V77" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>196</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H78" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" t="s">
-        <v>58</v>
-      </c>
-      <c r="K78" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>198</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J80" t="s">
-        <v>58</v>
-      </c>
-      <c r="K80" t="s">
-        <v>58</v>
-      </c>
-      <c r="T80" t="s">
-        <v>58</v>
-      </c>
-      <c r="V80" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>199</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I81" t="s">
-        <v>58</v>
-      </c>
-      <c r="P81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ref="F82:F87" si="3">COUNTIF(G82:EZ82, "da")</f>
-        <v>2</v>
-      </c>
-      <c r="K82" t="s">
-        <v>58</v>
-      </c>
-      <c r="S82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>110</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>58</v>
-      </c>
-      <c r="K84" t="s">
-        <v>58</v>
-      </c>
-      <c r="S84" t="s">
-        <v>58</v>
-      </c>
-      <c r="U84" t="s">
-        <v>58</v>
-      </c>
-      <c r="W84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>111</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>113</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X87" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z87" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26">
       <c r="E88" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F88">
         <f>COUNTIF(G88:EZ88, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:26">
       <c r="E89" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F89">
         <f>COUNTIF(G89:EZ89, "da")</f>
         <v>1</v>
       </c>
       <c r="R89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26">
       <c r="E90" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F90">
         <f>COUNTIF(G90:EZ90, "da")</f>
         <v>4</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X90" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Z90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="3:26">
       <c r="E91" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F91">
         <f>COUNTIF(G91:EZ91, "da")</f>
         <v>1</v>
       </c>
       <c r="U91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26">
       <c r="E92" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F92">
         <f>COUNTIF(G92:EZ92, "da")</f>
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26">
       <c r="C94" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:26">
       <c r="E95" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="R95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="V95" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="3:26">
       <c r="E96" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F96">
         <f>COUNTIF(G96:EZ96, "da")</f>
         <v>1</v>
       </c>
       <c r="V96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C98" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25">
+      <c r="C98" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+    </row>
+    <row r="100" spans="3:25">
       <c r="C100" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F100">
         <f>COUNTIF(G100:EZ100, "da")</f>
         <v>1</v>
       </c>
       <c r="Y100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C102" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-    </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25">
+      <c r="C102" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+    </row>
+    <row r="104" spans="3:25">
       <c r="C104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:25">
       <c r="E105" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C107" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-    </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25">
+      <c r="C107" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+    </row>
+    <row r="109" spans="3:25">
       <c r="C109" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:25">
       <c r="E110" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:25">
       <c r="E111" s="14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:21">
       <c r="C113" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:21">
       <c r="E114" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P114" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="116" spans="3:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="3:21">
       <c r="C116" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:21">
       <c r="E117" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L117" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="3:21" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="3:21">
       <c r="E118" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:21">
       <c r="D119" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F119">
         <f>COUNTIF(G119:EZ119, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:21">
       <c r="E120" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F120">
         <f>COUNTIF(G120:EZ120, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:21">
       <c r="E121" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F121">
         <f>COUNTIF(G121:EZ121, "da")</f>
         <v>1</v>
       </c>
       <c r="U121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C123" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-    </row>
-    <row r="125" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C125" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-    </row>
-    <row r="127" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C127" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-    </row>
-    <row r="129" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="3:21">
+      <c r="C123" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+    </row>
+    <row r="125" spans="3:21">
+      <c r="C125" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="127" spans="3:21">
+      <c r="C127" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+    </row>
+    <row r="129" spans="3:24">
       <c r="E129" s="14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F129">
         <f>COUNTIF(G129:EZ129, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C131" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-    </row>
-    <row r="133" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24">
+      <c r="C131" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+    </row>
+    <row r="133" spans="3:24">
       <c r="C133" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F133">
         <f>COUNTIF(G133:EZ133, "da")</f>
         <v>3</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="U133" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="X133" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C135" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-    </row>
-    <row r="137" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="3:24">
+      <c r="C135" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+    </row>
+    <row r="137" spans="3:24">
       <c r="C137" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E137" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F137">
         <f>COUNTIF(G137:EZ137, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E138" s="15" t="s">
-        <v>224</v>
+    <row r="138" spans="3:24">
+      <c r="E138" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="F138">
-        <f t="shared" ref="F138:F150" si="4">COUNTIF(G138:EZ138, "da")</f>
+        <f t="shared" ref="F138:F150" si="3">COUNTIF(G138:EZ138, "da")</f>
         <v>2</v>
       </c>
       <c r="U138" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E139" s="15" t="s">
-        <v>225</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="3:24">
+      <c r="E139" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U139" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="E140" s="15"/>
-    </row>
-    <row r="141" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="3:24">
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="3:24">
       <c r="C141" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="3:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:24">
       <c r="E142" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="3:24" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="3:24">
       <c r="C144" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E144" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6">
       <c r="E145" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6">
       <c r="E146" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F146">
         <f>COUNTIF(G146:EZ146, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-    </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6">
+      <c r="C148" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+    </row>
+    <row r="150" spans="3:6">
       <c r="C150" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,16 +5204,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FA989-93CF-494A-8578-57CB6CF43C39}">
-  <dimension ref="A1:AJ89"/>
+  <dimension ref="A1:AJ91"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
@@ -5074,77 +5224,81 @@
     <col min="7" max="36" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1">
         <f>COUNT(F:F)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>SUM(F:F)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <f>COUNTIF(F:F, "&gt;9")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>COUNTA(G8:EZ8)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="19" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="7" customFormat="1">
+      <c r="F7" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -5167,9 +5321,9 @@
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="14.25" customHeight="1">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5192,10 +5346,16 @@
       <c r="M8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="16.5" customHeight="1">
       <c r="F9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5218,745 +5378,805 @@
       <c r="M9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="C10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F16" si="0">COUNTIF(G12:EZ12, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="E16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="15" t="s">
-        <v>80</v>
+    <row r="17" spans="3:15">
+      <c r="E17" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="F17">
         <f>COUNTIF(G17:EZ17, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15">
       <c r="C19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F19">
         <f>COUNTIF(G19:EZ19, "da")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="E20" s="11" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F41" si="1">COUNTIF(G20:EZ20, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F20:F43" si="1">COUNTIF(G20:EZ20, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="E21" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15">
       <c r="E22" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15">
       <c r="E23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="E24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15">
       <c r="E25" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15">
       <c r="E26" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15">
       <c r="E27" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15">
       <c r="E28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15">
       <c r="E29" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15">
       <c r="E30" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15">
       <c r="E31" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F31">
         <f>COUNTIF(G31:EZ31, "da")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
+    <row r="32" spans="3:15">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(G32:EZ32, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="E33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
+        <f>COUNTIF(G33:EZ33, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="F38">
-        <f>COUNTIF(G38:EZ38, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E39" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F39">
-        <f>COUNTIF(G39:EZ39, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(G40:EZ40, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="E41" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="F41">
+        <f>COUNTIF(G41:EZ41, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" t="s">
-        <v>58</v>
-      </c>
-      <c r="M41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42">
-        <f>COUNTIF(G42:EZ42, "da")</f>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(G44:EZ44, "da")</f>
         <v>3</v>
       </c>
-      <c r="I42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43">
-        <f>COUNTIF(G43:EZ43, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>131</v>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="E45" t="s">
+        <v>141</v>
       </c>
       <c r="F45">
         <f>COUNTIF(G45:EZ45, "da")</f>
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ref="F46:F73" si="2">COUNTIF(G46:EZ46, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(G47:EZ47, "da")</f>
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" t="s">
+        <v>69</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="E48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F75" si="2">COUNTIF(G48:EZ48, "da")</f>
         <v>3</v>
       </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-      <c r="M46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
       <c r="E49" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15">
       <c r="E50" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H50" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" t="s">
-        <v>58</v>
-      </c>
-      <c r="M50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
       <c r="E51" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
       <c r="E52" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J52" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E53" s="14" t="s">
-        <v>249</v>
+        <v>69</v>
+      </c>
+      <c r="L52" t="s">
+        <v>69</v>
+      </c>
+      <c r="M52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="E53" t="s">
+        <v>259</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
       <c r="E54" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>251</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="E55" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15">
+      <c r="E57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" t="s">
+        <v>69</v>
+      </c>
+      <c r="N57" t="s">
+        <v>69</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15">
+      <c r="E58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIF(G58:EZ58, "da")</f>
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>69</v>
+      </c>
+      <c r="K58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" t="s">
+        <v>69</v>
+      </c>
+      <c r="M58" t="s">
+        <v>69</v>
+      </c>
+      <c r="O58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15">
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIF(G59:EZ59, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15">
+      <c r="E60" t="s">
+        <v>265</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIF(G60:EZ60, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="E61" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIF(G61:EZ61, "da")</f>
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15">
+      <c r="E62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIF(G62:EZ62, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15">
+      <c r="C63" s="6"/>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIF(G63:EZ63, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="6"/>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIF(G64:EZ64, "da")</f>
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" t="s">
-        <v>58</v>
-      </c>
-      <c r="M55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ref="F56:F62" si="3">COUNTIF(G56:EZ56, "da")</f>
-        <v>4</v>
-      </c>
-      <c r="H56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" t="s">
-        <v>58</v>
-      </c>
-      <c r="M56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>252</v>
-      </c>
-      <c r="F57">
+      <c r="K66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" t="s">
+        <v>69</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="E69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
+      <c r="C71" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15">
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15">
+      <c r="C77" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+    </row>
+    <row r="79" spans="3:15">
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79:F83" si="3">COUNTIF(G79:EZ79, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15">
+      <c r="E80" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>254</v>
-      </c>
-      <c r="F59">
+    <row r="82" spans="3:12">
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="M59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60">
+      <c r="J82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="E83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="6"/>
-      <c r="E62" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K64" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>259</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C75" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ref="F77:F81" si="4">COUNTIF(G77:EZ77, "da")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
-        <v>260</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E80" t="s">
-        <v>261</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>217</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>262</v>
-      </c>
-      <c r="F89">
-        <f>COUNTIF(G89:EZ89, "da")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
+      <c r="C85" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+    </row>
+    <row r="87" spans="3:12">
+      <c r="C87" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="89" spans="3:12">
+      <c r="C89" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+    </row>
+    <row r="91" spans="3:12">
+      <c r="E91" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F91">
+        <f>COUNTIF(G91:EZ91, "da")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C89:E89"/>
     <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C77:E77"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
